--- a/External RFT.xlsx
+++ b/External RFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pclservices-my.sharepoint.com/personal/kyle_prima_pci_com/Documents/Desktop/Novo Dashboard v3/Novo Dashboard/NovoAnalysisDashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pclservices-my.sharepoint.com/personal/kyle_prima_pci_com/Documents/Desktop/Dashboard v5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{9B2BD6F3-5A79-4801-A8BC-B3A19C8E8995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E46848-5378-4ED8-9064-E1B508C86F38}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{9B2BD6F3-5A79-4801-A8BC-B3A19C8E8995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EEC495-4B0D-42BB-AB3A-AA010C33D593}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AE1D9D8D-6D3F-4F7F-821C-413BFC8FD4F0}"/>
+    <workbookView xWindow="-15420" yWindow="-5535" windowWidth="12150" windowHeight="20775" activeTab="1" xr2:uid="{AE1D9D8D-6D3F-4F7F-821C-413BFC8FD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="504">
   <si>
     <t>Comment</t>
   </si>
@@ -1674,8 +1674,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17411,7 +17411,7 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="C9" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17430,41 +17430,31 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -18326,6 +18316,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FAA0713D624F34B9D839A408B5A563B" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84e55c37dbcb9366e649de49355f750e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b1674b3-9ca2-437a-b594-ec08206bce15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf16fe0a5da52ec11596d72b2e54be6d" ns2:_="">
     <xsd:import namespace="6b1674b3-9ca2-437a-b594-ec08206bce15"/>
@@ -18463,22 +18468,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE787F4-3A2C-4DD2-98C0-C79201135E8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A8C6C09-066A-4920-AF42-EBEF97E07DE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E3844C-345A-49C9-B1F8-9502C92E8969}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18494,21 +18501,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A8C6C09-066A-4920-AF42-EBEF97E07DE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE787F4-3A2C-4DD2-98C0-C79201135E8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>